--- a/xlsx/道光_intext.xlsx
+++ b/xlsx/道光_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
   <si>
     <t>道光</t>
   </si>
@@ -29,7 +29,7 @@
     <t>道光帝</t>
   </si>
   <si>
-    <t>政策_政策_美國_道光</t>
+    <t>政策_政策_美国_道光</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%8B%9E%E5%8D%91</t>
   </si>
   <si>
-    <t>律勞卑</t>
+    <t>律劳卑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%88%99%E5%BE%90</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E4%B8%99</t>
   </si>
   <si>
-    <t>張丙</t>
+    <t>张丙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%94%BF</t>
@@ -377,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E6%B2%BB</t>
   </si>
   <si>
-    <t>紹治</t>
+    <t>绍治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E6%B2%BB%E5%B8%9D</t>
   </si>
   <si>
-    <t>紹治帝</t>
+    <t>绍治帝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%97%A3%E5%BE%B7</t>
@@ -413,15 +413,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%B9%B4%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>台灣年號列表</t>
+    <t>台湾年号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%B9%B4%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中國年號列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D</t>
   </si>
   <si>
@@ -503,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E5%85%89_(%E8%83%A1%E5%AE%88%E9%BE%8D)</t>
   </si>
   <si>
-    <t>清光 (胡守龍)</t>
+    <t>清光 (胡守龙)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%B4_(%E8%92%8B%E5%B0%94%E6%81%82)</t>
@@ -527,13 +524,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%85%B6_(%E7%8E%8B%E8%80%80%E7%A5%96)</t>
   </si>
   <si>
-    <t>大慶 (王耀祖)</t>
+    <t>大庆 (王耀祖)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%BE%B7_(%E6%A5%8A%E8%B5%B7%E9%9A%86)</t>
   </si>
   <si>
-    <t>廣德 (楊起隆)</t>
+    <t>广德 (杨起隆)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%85%B4_(%E9%AD%8F%E6%9E%9D%E5%8F%B6)</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%81%8B_(%E9%99%B3%E5%91%A8%E5%85%A8)</t>
   </si>
   <si>
-    <t>天運 (陳周全)</t>
+    <t>天运 (陈周全)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BA%86_(%E7%8E%8B%E5%A4%A7%E5%8F%94)</t>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%B8%B1</t>
   </si>
   <si>
-    <t>天縱</t>
+    <t>天纵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%98%8E%E5%9B%BD_(%E5%B9%B4%E5%8F%B7)</t>
@@ -665,13 +662,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%9C%8B%E7%B4%80%E5%B9%B4</t>
   </si>
   <si>
-    <t>民國紀年</t>
+    <t>民国纪年</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9B%86</t>
   </si>
   <si>
-    <t>公曆</t>
+    <t>公历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -683,25 +680,25 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%8F%B0%E7%81%A3%E5%B9%B4%E8%99%9F</t>
   </si>
   <si>
-    <t>Template talk-台灣年號</t>
+    <t>Template talk-台湾年号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E9%84%AD%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>明鄭時期</t>
+    <t>明郑时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%9B%86_(%E5%8D%97%E6%98%8E)</t>
   </si>
   <si>
-    <t>永曆 (南明)</t>
+    <t>永历 (南明)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B8%85%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>台灣清治時期</t>
+    <t>台湾清治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%BA%E7%A5%A5</t>
@@ -713,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%B0%91%E4%B8%BB%E5%9C%8B</t>
   </si>
   <si>
-    <t>臺灣民主國</t>
+    <t>台湾民主国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%B8%85_(%E5%B9%B4%E5%8F%B7)</t>
@@ -725,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%97%A5%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>台灣日治時期</t>
+    <t>台湾日治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B2%BB</t>
@@ -737,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9D%96%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>大靖政權</t>
+    <t>大靖政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%AD%A3</t>
@@ -755,37 +752,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>臺灣歷史</t>
+    <t>台湾历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%8F%B2%E5%89%8D%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>臺灣史前時期</t>
+    <t>台湾史前时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%8D%B7%E8%98%AD%E7%B5%B1%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>臺灣荷蘭統治時期</t>
+    <t>台湾荷兰统治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%A5%BF%E7%8F%AD%E7%89%99%E7%B5%B1%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>臺灣西班牙統治時期</t>
+    <t>台湾西班牙统治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%B8%85%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>臺灣清治時期</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%88%B0%E5%BE%8C%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>臺灣戰後時期</t>
+    <t>台湾战后时期</t>
   </si>
 </sst>
 </file>
@@ -3157,7 +3151,7 @@
         <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -3183,10 +3177,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>9</v>
@@ -3212,10 +3206,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3241,10 +3235,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3270,10 +3264,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3299,10 +3293,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3328,10 +3322,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3357,10 +3351,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3386,10 +3380,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3415,10 +3409,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3444,10 +3438,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3473,10 +3467,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3502,10 +3496,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3531,10 +3525,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3560,10 +3554,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3589,10 +3583,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3618,10 +3612,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3647,10 +3641,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3676,10 +3670,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3705,10 +3699,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3734,10 +3728,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3763,10 +3757,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3792,10 +3786,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -3821,10 +3815,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -3850,10 +3844,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -3879,10 +3873,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>5</v>
@@ -3908,10 +3902,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3937,10 +3931,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -3966,10 +3960,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3995,10 +3989,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4024,10 +4018,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4053,10 +4047,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4082,10 +4076,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4111,10 +4105,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4140,10 +4134,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4169,10 +4163,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4198,10 +4192,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4227,10 +4221,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4256,10 +4250,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4285,10 +4279,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4314,10 +4308,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4372,10 +4366,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" t="s">
         <v>215</v>
-      </c>
-      <c r="F112" t="s">
-        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4401,10 +4395,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>216</v>
+      </c>
+      <c r="F113" t="s">
         <v>217</v>
-      </c>
-      <c r="F113" t="s">
-        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4430,10 +4424,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>218</v>
+      </c>
+      <c r="F114" t="s">
         <v>219</v>
-      </c>
-      <c r="F114" t="s">
-        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4459,10 +4453,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>220</v>
+      </c>
+      <c r="F115" t="s">
         <v>221</v>
-      </c>
-      <c r="F115" t="s">
-        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>4</v>
@@ -4517,10 +4511,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>222</v>
+      </c>
+      <c r="F117" t="s">
         <v>223</v>
-      </c>
-      <c r="F117" t="s">
-        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4546,10 +4540,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>224</v>
+      </c>
+      <c r="F118" t="s">
         <v>225</v>
-      </c>
-      <c r="F118" t="s">
-        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4575,10 +4569,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" t="s">
         <v>227</v>
-      </c>
-      <c r="F119" t="s">
-        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4604,10 +4598,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>180</v>
+      </c>
+      <c r="F120" t="s">
         <v>181</v>
-      </c>
-      <c r="F120" t="s">
-        <v>182</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4633,10 +4627,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>228</v>
+      </c>
+      <c r="F121" t="s">
         <v>229</v>
-      </c>
-      <c r="F121" t="s">
-        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4662,10 +4656,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>230</v>
+      </c>
+      <c r="F122" t="s">
         <v>231</v>
-      </c>
-      <c r="F122" t="s">
-        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4691,10 +4685,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>232</v>
+      </c>
+      <c r="F123" t="s">
         <v>233</v>
-      </c>
-      <c r="F123" t="s">
-        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4720,10 +4714,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>234</v>
+      </c>
+      <c r="F124" t="s">
         <v>235</v>
-      </c>
-      <c r="F124" t="s">
-        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4749,10 +4743,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>236</v>
+      </c>
+      <c r="F125" t="s">
         <v>237</v>
-      </c>
-      <c r="F125" t="s">
-        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4778,10 +4772,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>238</v>
+      </c>
+      <c r="F126" t="s">
         <v>239</v>
-      </c>
-      <c r="F126" t="s">
-        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4807,10 +4801,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>240</v>
+      </c>
+      <c r="F127" t="s">
         <v>241</v>
-      </c>
-      <c r="F127" t="s">
-        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4836,10 +4830,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>242</v>
+      </c>
+      <c r="F128" t="s">
         <v>243</v>
-      </c>
-      <c r="F128" t="s">
-        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4865,10 +4859,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>244</v>
+      </c>
+      <c r="F129" t="s">
         <v>245</v>
-      </c>
-      <c r="F129" t="s">
-        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4894,10 +4888,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" t="s">
         <v>247</v>
-      </c>
-      <c r="F130" t="s">
-        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4923,10 +4917,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>248</v>
+      </c>
+      <c r="F131" t="s">
         <v>249</v>
-      </c>
-      <c r="F131" t="s">
-        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4952,10 +4946,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132" t="s">
         <v>251</v>
-      </c>
-      <c r="F132" t="s">
-        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -4981,10 +4975,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>222</v>
+      </c>
+      <c r="F133" t="s">
         <v>223</v>
-      </c>
-      <c r="F133" t="s">
-        <v>224</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5010,10 +5004,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5039,10 +5033,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>234</v>
+      </c>
+      <c r="F135" t="s">
         <v>235</v>
-      </c>
-      <c r="F135" t="s">
-        <v>236</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -5068,10 +5062,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
